--- a/scenarios_and_results/Scenario_B_tilde.xlsx
+++ b/scenarios_and_results/Scenario_B_tilde.xlsx
@@ -696,73 +696,73 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>4960.819979413744</v>
+        <v>4960.819979413793</v>
       </c>
       <c r="C3">
-        <v>1.859712193882625</v>
+        <v>1.859712193882642</v>
       </c>
       <c r="D3">
-        <v>7.221121298080227</v>
+        <v>7.22112129808029</v>
       </c>
       <c r="E3">
-        <v>7.221121298080227</v>
+        <v>7.22112129808029</v>
       </c>
       <c r="F3">
-        <v>0.1896165556328803</v>
+        <v>0.1896165556328821</v>
       </c>
       <c r="G3">
-        <v>7.221121298080227E-05</v>
+        <v>7.221121298080292E-05</v>
       </c>
       <c r="H3">
-        <v>0.1896887668458611</v>
+        <v>0.1896887668458629</v>
       </c>
       <c r="I3">
-        <v>7.221121298080227E-05</v>
+        <v>7.221121298080292E-05</v>
       </c>
       <c r="J3">
-        <v>7.221121298080227</v>
+        <v>7.22112129808029</v>
       </c>
       <c r="K3">
-        <v>0.1896887668458611</v>
+        <v>0.1896887668458629</v>
       </c>
       <c r="L3">
-        <v>0.6079391954947615</v>
+        <v>0.6079391954947647</v>
       </c>
       <c r="M3">
-        <v>26.26860275789729</v>
+        <v>26.26860275789731</v>
       </c>
       <c r="N3">
-        <v>0.1661678752155362</v>
+        <v>0.1661678752155361</v>
       </c>
       <c r="O3">
-        <v>0.1661678752155362</v>
+        <v>0.1661678752155361</v>
       </c>
       <c r="P3">
-        <v>0.1896887668456655</v>
+        <v>0.1896887668456662</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>26.26860275787019</v>
+        <v>26.26860275787006</v>
       </c>
       <c r="S3">
-        <v>26.26860275789729</v>
+        <v>26.26860275789731</v>
       </c>
       <c r="T3">
-        <v>26.25860275789729</v>
+        <v>26.25860275789731</v>
       </c>
       <c r="U3">
-        <v>0.009999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>3.359912556112266</v>
+        <v>3.358439812064412</v>
       </c>
       <c r="X3">
-        <v>3.861208741967962</v>
+        <v>3.862681486015878</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -773,61 +773,61 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>1911.587335920697</v>
+        <v>1911.587335920683</v>
       </c>
       <c r="C4">
-        <v>1.840992415605145</v>
+        <v>1.840992415605132</v>
       </c>
       <c r="D4">
-        <v>4.656910833411859</v>
+        <v>4.656910833411841</v>
       </c>
       <c r="E4">
-        <v>4.656910833411859</v>
+        <v>4.656910833411841</v>
       </c>
       <c r="F4">
-        <v>0.1852543416677802</v>
+        <v>0.1852543416677789</v>
       </c>
       <c r="G4">
-        <v>0.005681431216762467</v>
+        <v>0.005681431216762445</v>
       </c>
       <c r="H4">
-        <v>0.1909357728845427</v>
+        <v>0.1909357728845414</v>
       </c>
       <c r="I4">
-        <v>0.005681431216762467</v>
+        <v>0.005681431216762445</v>
       </c>
       <c r="J4">
-        <v>4.656910833411859</v>
+        <v>4.656910833411841</v>
       </c>
       <c r="K4">
-        <v>0.1909357728845427</v>
+        <v>0.1909357728845414</v>
       </c>
       <c r="L4">
-        <v>0.3920608045052383</v>
+        <v>0.3920608045052354</v>
       </c>
       <c r="M4">
-        <v>41.00052152913022</v>
+        <v>41.0005215291301</v>
       </c>
       <c r="N4">
-        <v>0.2780991565189996</v>
+        <v>0.2780991565190005</v>
       </c>
       <c r="O4">
-        <v>0.2780991565189996</v>
+        <v>0.2780991565190005</v>
       </c>
       <c r="P4">
-        <v>0.1909357728845804</v>
+        <v>0.1909357728845785</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>41.00052152913832</v>
+        <v>41.00052152913807</v>
       </c>
       <c r="S4">
-        <v>41.00052152913022</v>
+        <v>41.0005215291301</v>
       </c>
       <c r="T4">
-        <v>39.78052152913023</v>
+        <v>39.7805215291301</v>
       </c>
       <c r="U4">
         <v>1.22</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3.21329301664951</v>
+        <v>3.214079629818611</v>
       </c>
       <c r="X4">
-        <v>1.44361781676235</v>
+        <v>1.44283120359323</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -912,76 +912,76 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>356.3280475597738</v>
+        <v>356.328047559774</v>
       </c>
       <c r="C6">
-        <v>0.1467501431070172</v>
+        <v>0.1467501431070173</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2496599957285248</v>
+        <v>0.2496599957285217</v>
       </c>
       <c r="F6">
-        <v>0.01638887680789328</v>
+        <v>0.01638887680789329</v>
       </c>
       <c r="G6">
-        <v>0.001123469980778362</v>
+        <v>0.001123469980778347</v>
       </c>
       <c r="H6">
         <v>0.01751234678867164</v>
       </c>
       <c r="I6">
-        <v>5.849869921803476E-17</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.257722033187747E-15</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01638887680789334</v>
+        <v>0.01638887680789329</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.30306032457387E+16</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4.02930882225112E-16</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.07998247600087618</v>
+        <v>0.07998247600087513</v>
       </c>
       <c r="P6">
-        <v>0.06274086656090001</v>
+        <v>0.06274086656089996</v>
       </c>
       <c r="Q6">
-        <v>0.04522851977226806</v>
+        <v>0.045228519772268</v>
       </c>
       <c r="R6">
-        <v>251.3052456714898</v>
+        <v>251.3052456714927</v>
       </c>
       <c r="S6">
-        <v>251.3052456716487</v>
+        <v>251.3052456716516</v>
       </c>
       <c r="T6">
-        <v>65.64478526112855</v>
+        <v>65.64478526112941</v>
       </c>
       <c r="U6">
-        <v>4.500000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="V6">
-        <v>181.1604604105202</v>
+        <v>181.1604604105223</v>
       </c>
       <c r="W6">
-        <v>0.2496599957285248</v>
+        <v>0.2496599957285217</v>
       </c>
       <c r="X6">
-        <v>2.537655978661077E-17</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.2496599957285236</v>
+        <v>0.2496599957285217</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1051,25 +1051,25 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>5.991702624975026</v>
+        <v>5.991702624973663</v>
       </c>
       <c r="C8">
-        <v>0.004793362099980021</v>
+        <v>0.00479336209997893</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.009809455276206403</v>
+        <v>0.009809455276204516</v>
       </c>
       <c r="F8">
-        <v>0.0009540204078989631</v>
+        <v>0.000954020407898746</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0009540204078989631</v>
+        <v>0.000954020407898746</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0009540204078989631</v>
+        <v>0.000954020407898746</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1090,37 +1090,37 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1868919238330585</v>
+        <v>0.186891923833065</v>
       </c>
       <c r="P8">
-        <v>0.002024990570913415</v>
+        <v>0.002024990570913008</v>
       </c>
       <c r="Q8">
-        <v>0.001070970163014813</v>
+        <v>0.001070970163014623</v>
       </c>
       <c r="R8">
-        <v>206.4325198388117</v>
+        <v>206.43251983881</v>
       </c>
       <c r="S8">
-        <v>206.4325198388486</v>
+        <v>206.4325198388468</v>
       </c>
       <c r="T8">
-        <v>97.25518706558698</v>
+        <v>97.25518706558357</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>109.1773327732616</v>
+        <v>109.1773327732632</v>
       </c>
       <c r="W8">
-        <v>0.009809455276206403</v>
+        <v>0.009809455276204516</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.009809455276206403</v>
+        <v>0.009809455276204516</v>
       </c>
     </row>
   </sheetData>
@@ -1215,76 +1215,76 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>1.076598999430556</v>
+        <v>1.076598999430596</v>
       </c>
       <c r="C2">
-        <v>0.6682063344038701</v>
+        <v>0.668206334403889</v>
       </c>
       <c r="D2">
-        <v>0.6682063344035605</v>
+        <v>0.6682063344035793</v>
       </c>
       <c r="E2">
-        <v>252.7177676530079</v>
+        <v>252.7177676530089</v>
       </c>
       <c r="F2">
-        <v>3.663672515428249</v>
+        <v>3.663672515428358</v>
       </c>
       <c r="G2">
-        <v>5.482846131200529</v>
+        <v>5.482846131200539</v>
       </c>
       <c r="H2">
-        <v>0.9258751395107073</v>
+        <v>0.9258751395107386</v>
       </c>
       <c r="I2">
-        <v>0.9230460016173918</v>
+        <v>0.9234217668537745</v>
       </c>
       <c r="J2">
-        <v>0.06876102119439315</v>
+        <v>0.06876102119439517</v>
       </c>
       <c r="K2">
-        <v>0.002870212932483193</v>
+        <v>0.00287021293248329</v>
       </c>
       <c r="L2">
-        <v>0.07163123412687634</v>
+        <v>0.07163123412687847</v>
       </c>
       <c r="M2">
-        <v>0.02624604411833316</v>
+        <v>0.02624604411833375</v>
       </c>
       <c r="N2">
-        <v>0.09787727824499298</v>
+        <v>0.09787727824499523</v>
       </c>
       <c r="O2">
-        <v>0.9258751395107073</v>
+        <v>0.9258751395107386</v>
       </c>
       <c r="P2">
-        <v>105.7132588060786</v>
+        <v>105.7132588060779</v>
       </c>
       <c r="Q2">
-        <v>0.1839243701099932</v>
+        <v>0.1839243701099947</v>
       </c>
       <c r="R2">
-        <v>0.1581749582947407</v>
+        <v>0.1581749582947416</v>
       </c>
       <c r="S2">
-        <v>0.4892374895397469</v>
+        <v>0.4892374895397614</v>
       </c>
       <c r="T2">
-        <v>0.0653505795046985</v>
+        <v>0.06535057950470034</v>
       </c>
       <c r="U2">
-        <v>0.4238869100350484</v>
+        <v>0.4238869100350611</v>
       </c>
       <c r="V2">
-        <v>105.7132588058447</v>
+        <v>105.7132588058436</v>
       </c>
       <c r="W2">
-        <v>74.26597632887189</v>
+        <v>74.26597632887156</v>
       </c>
       <c r="X2">
-        <v>3.1</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="Y2">
-        <v>28.34728247720668</v>
+        <v>28.34728247720635</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1348,76 +1348,76 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>1.287096433869082</v>
+        <v>1.28709643386907</v>
       </c>
       <c r="C4">
-        <v>0.5055903482193226</v>
+        <v>0.5055903482193114</v>
       </c>
       <c r="D4">
-        <v>0.5055903482195316</v>
+        <v>0.5055903482195204</v>
       </c>
       <c r="E4">
-        <v>103.5555836197792</v>
+        <v>103.5555836197805</v>
       </c>
       <c r="F4">
-        <v>9.719508848318265</v>
+        <v>9.71950884831805</v>
       </c>
       <c r="G4">
         <v>19.22407910385578</v>
       </c>
       <c r="H4">
-        <v>1.006509411285206</v>
+        <v>1.006509411285196</v>
       </c>
       <c r="I4">
-        <v>1.004278974616167</v>
+        <v>1.004589340258541</v>
       </c>
       <c r="J4">
-        <v>0.08967760478259355</v>
+        <v>0.08967760478259157</v>
       </c>
       <c r="K4">
-        <v>0.001006509411285206</v>
+        <v>0.001006509411285196</v>
       </c>
       <c r="L4">
-        <v>0.09068411419387876</v>
+        <v>0.09068411419387677</v>
       </c>
       <c r="M4">
-        <v>0.0268113578781726</v>
+        <v>0.02681135787817424</v>
       </c>
       <c r="N4">
-        <v>0.1174954720720657</v>
+        <v>0.1174954720720644</v>
       </c>
       <c r="O4">
-        <v>1.006509411285206</v>
+        <v>1.006509411285196</v>
       </c>
       <c r="P4">
-        <v>116.7355920915057</v>
+        <v>116.7355920915065</v>
       </c>
       <c r="Q4">
-        <v>0.2906084286798623</v>
+        <v>0.2906084286798659</v>
       </c>
       <c r="R4">
-        <v>0.2272557912274643</v>
+        <v>0.2272557912274672</v>
       </c>
       <c r="S4">
-        <v>1.05371024891427</v>
+        <v>1.053710248914247</v>
       </c>
       <c r="T4">
-        <v>0.5376043290685701</v>
+        <v>0.5376043290685582</v>
       </c>
       <c r="U4">
-        <v>0.5161059198456999</v>
+        <v>0.5161059198456884</v>
       </c>
       <c r="V4">
-        <v>116.7355920915199</v>
+        <v>116.7355920915198</v>
       </c>
       <c r="W4">
-        <v>89.09763165362232</v>
+        <v>89.09763165362121</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>26.63796043788336</v>
+        <v>26.63796043788525</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1425,13 +1425,13 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>2.808088871096833</v>
+        <v>2.808088871096862</v>
       </c>
       <c r="C5">
-        <v>0.7705321619717751</v>
+        <v>0.7705321619717976</v>
       </c>
       <c r="D5">
-        <v>0.5701937998591136</v>
+        <v>0.5701937998591302</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1449,52 +1449,52 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04051727329305579</v>
+        <v>0.04051727329305699</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04051727329305579</v>
+        <v>0.04051727329305699</v>
       </c>
       <c r="M5">
-        <v>0.03264934314122426</v>
+        <v>0.0326493431412213</v>
       </c>
       <c r="N5">
-        <v>0.07316661643426638</v>
+        <v>0.07316661643426633</v>
       </c>
       <c r="O5">
-        <v>2.077985764611657</v>
+        <v>2.077985764611678</v>
       </c>
       <c r="P5">
-        <v>35.21035498910348</v>
+        <v>35.21035498910226</v>
       </c>
       <c r="Q5">
-        <v>0.4160216875147125</v>
+        <v>0.4160216875147046</v>
       </c>
       <c r="R5">
-        <v>0.4160216875147125</v>
+        <v>0.4160216875147047</v>
       </c>
       <c r="S5">
-        <v>0.3467394728872988</v>
+        <v>0.3467394728873089</v>
       </c>
       <c r="T5">
-        <v>0.3467394728872988</v>
+        <v>0.3467394728873089</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>35.2103549890969</v>
+        <v>35.21035498909652</v>
       </c>
       <c r="W5">
-        <v>19.49834016337828</v>
+        <v>19.49834016337866</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>15.7120148257252</v>
+        <v>15.71201482572361</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1502,22 +1502,22 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.04540739909811303</v>
+        <v>0.04540739909811409</v>
       </c>
       <c r="C6">
-        <v>0.3809906354998178</v>
+        <v>0.3809906354998329</v>
       </c>
       <c r="D6">
-        <v>0.2926606197809358</v>
+        <v>0.2926606197809386</v>
       </c>
       <c r="E6">
-        <v>29.01318568135332</v>
+        <v>29.01318568135408</v>
       </c>
       <c r="F6">
-        <v>31.30121565884868</v>
+        <v>31.30121565884862</v>
       </c>
       <c r="G6">
-        <v>106.9539717447413</v>
+        <v>106.95397174474</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1526,52 +1526,52 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01124033696403049</v>
+        <v>0.01124033696403048</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01124033696403049</v>
+        <v>0.01124033696403048</v>
       </c>
       <c r="M6">
-        <v>0.03676004845125579</v>
+        <v>0.03676004845125776</v>
       </c>
       <c r="N6">
-        <v>0.04800038541529757</v>
+        <v>0.04800038541529966</v>
       </c>
       <c r="O6">
-        <v>0.9081479819622607</v>
+        <v>0.9081479819622827</v>
       </c>
       <c r="P6">
-        <v>52.85524646717874</v>
+        <v>52.85524646717962</v>
       </c>
       <c r="Q6">
-        <v>0.285711363638957</v>
+        <v>0.2857113636389524</v>
       </c>
       <c r="R6">
-        <v>0.3542323563457072</v>
+        <v>0.3542323563457124</v>
       </c>
       <c r="S6">
-        <v>0.08676227000024686</v>
+        <v>0.08676227000024678</v>
       </c>
       <c r="T6">
-        <v>0.002248987721355425</v>
+        <v>0.002248987721355514</v>
       </c>
       <c r="U6">
-        <v>0.08451328227889143</v>
+        <v>0.08451328227889127</v>
       </c>
       <c r="V6">
-        <v>52.85524646719117</v>
+        <v>52.85524646719218</v>
       </c>
       <c r="W6">
-        <v>12.37720854672075</v>
+        <v>12.37720854672044</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>40.47803792045799</v>
+        <v>40.47803792045917</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1306772145309857</v>
+        <v>0.1306772145309913</v>
       </c>
       <c r="D7">
-        <v>0.8286698780459856</v>
+        <v>0.828669878045986</v>
       </c>
       <c r="E7">
-        <v>2.697255837602101</v>
+        <v>2.694135704808506</v>
       </c>
       <c r="F7">
-        <v>215.2575343929148</v>
+        <v>215.5068284767111</v>
       </c>
       <c r="G7">
-        <v>259.762711419528</v>
+        <v>260.0635478447448</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1603,52 +1603,52 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006458719868364924</v>
+        <v>0.006458719868367693</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.006458719868364924</v>
+        <v>0.006458719868367693</v>
       </c>
       <c r="M7">
-        <v>0.03876979990602552</v>
+        <v>0.03876979990602832</v>
       </c>
       <c r="N7">
-        <v>0.04522851977226783</v>
+        <v>0.04522851977227032</v>
       </c>
       <c r="O7">
-        <v>0.5806046412291245</v>
+        <v>0.5806046412291499</v>
       </c>
       <c r="P7">
-        <v>77.89899798017956</v>
+        <v>77.89899798018573</v>
       </c>
       <c r="Q7">
-        <v>0.6502540283825209</v>
+        <v>0.6502540283825244</v>
       </c>
       <c r="R7">
-        <v>0.07998247600087578</v>
+        <v>0.07998247600087924</v>
       </c>
       <c r="S7">
-        <v>0.04898454052351324</v>
+        <v>0.04898454052351533</v>
       </c>
       <c r="T7">
-        <v>0.04898454052351324</v>
+        <v>0.04898454052351533</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>77.89899797652369</v>
+        <v>77.89899797652457</v>
       </c>
       <c r="W7">
-        <v>11.12412717661365</v>
+        <v>11.12412717661794</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>66.7748708035659</v>
+        <v>66.77487080356779</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1656,13 +1656,13 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>0.03218892731892717</v>
+        <v>0.0321889273189287</v>
       </c>
       <c r="C8">
-        <v>0.005191571150892336</v>
+        <v>0.005191571150892376</v>
       </c>
       <c r="D8">
-        <v>0.0185413255389012</v>
+        <v>0.01854132553890134</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1680,52 +1680,52 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01122508229928715</v>
+        <v>0.01122508229928724</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01122508229928715</v>
+        <v>0.01122508229928724</v>
       </c>
       <c r="M8">
-        <v>0.004832627930690969</v>
+        <v>0.00483262793069183</v>
       </c>
       <c r="N8">
-        <v>0.01605771022997321</v>
+        <v>0.01605771022997443</v>
       </c>
       <c r="O8">
-        <v>0.1149604547104542</v>
+        <v>0.1149604547104597</v>
       </c>
       <c r="P8">
-        <v>139.6802950233797</v>
+        <v>139.6802950233813</v>
       </c>
       <c r="Q8">
-        <v>0.7077886395600543</v>
+        <v>0.7077886395600824</v>
       </c>
       <c r="R8">
-        <v>0.7077886395600544</v>
+        <v>0.7077886395600826</v>
       </c>
       <c r="S8">
-        <v>0.02076628460356934</v>
+        <v>0.0207662846035695</v>
       </c>
       <c r="T8">
-        <v>0.02076628460356934</v>
+        <v>0.0207662846035695</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>139.680295023337</v>
+        <v>139.6802950233409</v>
       </c>
       <c r="W8">
-        <v>97.64298799582232</v>
+        <v>97.64298799581844</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>42.03730702755739</v>
+        <v>42.03730702756288</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1733,13 +1733,13 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.06050550247915416</v>
+        <v>0.06050550247915704</v>
       </c>
       <c r="C9">
-        <v>0.009758592388890165</v>
+        <v>0.009758592388890238</v>
       </c>
       <c r="D9">
-        <v>0.02781198830833697</v>
+        <v>0.02781198830833718</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1757,52 +1757,52 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.002002367100493267</v>
+        <v>0.002002367100493282</v>
       </c>
       <c r="K9">
-        <v>0.0005380149280446388</v>
+        <v>0.0005380149280446644</v>
       </c>
       <c r="L9">
-        <v>0.002540382028537906</v>
+        <v>0.002540382028537947</v>
       </c>
       <c r="M9">
-        <v>0.001496244061457111</v>
+        <v>0.001496244061457644</v>
       </c>
       <c r="N9">
-        <v>0.004036626089993208</v>
+        <v>0.004036626089993787</v>
       </c>
       <c r="O9">
-        <v>0.1724406820655894</v>
+        <v>0.1724406820655976</v>
       </c>
       <c r="P9">
-        <v>23.40878058264494</v>
+        <v>23.40878058264715</v>
       </c>
       <c r="Q9">
-        <v>0.7077886395600544</v>
+        <v>0.7077886395600828</v>
       </c>
       <c r="R9">
-        <v>0.7077886395600546</v>
+        <v>0.7077886395600829</v>
       </c>
       <c r="S9">
-        <v>0.01946839181583588</v>
+        <v>0.01946839181583602</v>
       </c>
       <c r="T9">
-        <v>0.01946839181583588</v>
+        <v>0.01946839181583602</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>23.40878058263444</v>
+        <v>23.40878058263669</v>
       </c>
       <c r="W9">
-        <v>11.61191823476811</v>
+        <v>11.61191823476764</v>
       </c>
       <c r="X9">
         <v>3.12</v>
       </c>
       <c r="Y9">
-        <v>8.676862347876826</v>
+        <v>8.676862347879503</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01248676577948599</v>
+        <v>0.01248676577948588</v>
       </c>
       <c r="D10">
-        <v>0.02018186586474207</v>
+        <v>0.02018186586474293</v>
       </c>
       <c r="E10">
-        <v>11.66528808283387</v>
+        <v>11.67015321073992</v>
       </c>
       <c r="F10">
-        <v>1.998178116865152</v>
+        <v>1.998178116865292</v>
       </c>
       <c r="G10">
-        <v>99.00859168606354</v>
+        <v>99.00859168606628</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1834,52 +1834,52 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.000523757610075437</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.000523757610075437</v>
       </c>
       <c r="M10">
-        <v>0.001898584220171652</v>
+        <v>0.001900781228952042</v>
       </c>
       <c r="N10">
-        <v>0.002422341830247423</v>
+        <v>0.002424538839027868</v>
       </c>
       <c r="O10">
-        <v>0.02330932337404647</v>
+        <v>0.02331904476616573</v>
       </c>
       <c r="P10">
-        <v>81.45170881646486</v>
+        <v>103.9724767176275</v>
       </c>
       <c r="Q10">
-        <v>0.2130961460072704</v>
+        <v>0.2131850199381526</v>
       </c>
       <c r="R10">
-        <v>0.131845176334886</v>
+        <v>0.1319001637164365</v>
       </c>
       <c r="S10">
-        <v>0.005051733969714971</v>
+        <v>0.005051733969715325</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.005051733969714971</v>
+        <v>0.005051733969715325</v>
       </c>
       <c r="V10">
-        <v>103.9215849973815</v>
+        <v>103.9724767176442</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>22.46050879559921</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>81.45170881646486</v>
+        <v>81.51196792202826</v>
       </c>
     </row>
   </sheetData>
